--- a/old_database/crypto/rnaSample/rnaSample_159.xlsx
+++ b/old_database/crypto/rnaSample/rnaSample_159.xlsx
@@ -43,7 +43,7 @@
     <t>05.25.10</t>
   </si>
   <si>
-    <t>Retrofitted</t>
+    <t>Retrofitted_159</t>
   </si>
 </sst>
 </file>

--- a/old_database/crypto/rnaSample/rnaSample_159.xlsx
+++ b/old_database/crypto/rnaSample/rnaSample_159.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="12">
   <si>
     <t xml:space="preserve">harvestDate</t>
   </si>
@@ -47,6 +47,9 @@
   </si>
   <si>
     <t xml:space="preserve">05.25.10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S.GISH</t>
   </si>
   <si>
     <t xml:space="preserve">Retrofitted_159</t>
@@ -176,18 +179,20 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1:G5"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B:B"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="1" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="3" style="0" width="8.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="22.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="20.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="8.67"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -213,7 +218,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>8</v>
       </c>
@@ -227,13 +232,13 @@
         <v>8</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -250,13 +255,13 @@
         <v>8</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>2</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -273,13 +278,13 @@
         <v>8</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>3</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -296,13 +301,13 @@
         <v>8</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>4</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
